--- a/apps/es/resources/screen/ES001F.xlsx
+++ b/apps/es/resources/screen/ES001F.xlsx
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>es.views.es001f_views.ES001F</t>
+          <t>es.views.es001.ES001F</t>
         </is>
       </c>
       <c r="D10" s="8" t="n"/>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="C14" s="11" t="n">
-        <v>20250214135416</v>
+        <v>20250806090000</v>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
@@ -1447,6 +1447,7 @@
       <c r="I19" s="11" t="n"/>
     </row>
     <row r="20">
+      <c r="A20" s="6" t="n"/>
       <c r="C20" s="11" t="inlineStr">
         <is>
           <t>userRoleRcs</t>
@@ -1699,6 +1700,7 @@
       <c r="T26" s="11" t="n"/>
     </row>
     <row r="27">
+      <c r="B27" s="1" t="n"/>
       <c r="C27" s="11" t="inlineStr">
         <is>
           <t>actionBar</t>
@@ -1907,6 +1909,7 @@
       <c r="P33" s="11" t="n"/>
     </row>
     <row r="34">
+      <c r="B34" s="1" t="n"/>
       <c r="C34" s="11" t="n"/>
       <c r="D34" s="11" t="n"/>
       <c r="E34" s="11" t="inlineStr">
@@ -1935,6 +1938,7 @@
       <c r="P34" s="11" t="n"/>
     </row>
     <row r="35">
+      <c r="B35" s="1" t="n"/>
       <c r="C35" s="11" t="n"/>
       <c r="D35" s="11" t="n"/>
       <c r="E35" s="11" t="inlineStr">
@@ -1972,6 +1976,7 @@
       <c r="P35" s="11" t="n"/>
     </row>
     <row r="36">
+      <c r="B36" s="1" t="n"/>
       <c r="C36" s="11" t="n"/>
       <c r="D36" s="11" t="n"/>
       <c r="E36" s="11" t="inlineStr">
@@ -2005,6 +2010,7 @@
       <c r="P36" s="11" t="n"/>
     </row>
     <row r="37">
+      <c r="B37" s="1" t="n"/>
       <c r="C37" s="11" t="n"/>
       <c r="D37" s="11" t="n"/>
       <c r="E37" s="11" t="inlineStr">
@@ -2037,6 +2043,7 @@
       <c r="P37" s="11" t="n"/>
     </row>
     <row r="38">
+      <c r="B38" s="1" t="n"/>
       <c r="C38" s="11" t="n"/>
       <c r="D38" s="11" t="n"/>
       <c r="E38" s="11" t="inlineStr">
@@ -2069,6 +2076,7 @@
       <c r="P38" s="11" t="n"/>
     </row>
     <row r="39">
+      <c r="B39" s="1" t="n"/>
       <c r="C39" s="11" t="n"/>
       <c r="D39" s="11" t="n"/>
       <c r="E39" s="11" t="inlineStr">
@@ -2097,6 +2105,7 @@
       <c r="P39" s="11" t="n"/>
     </row>
     <row r="40">
+      <c r="B40" s="1" t="n"/>
       <c r="C40" s="11" t="inlineStr">
         <is>
           <t>actionBar</t>
